--- a/Parcial 1/PracticaArchivos/Excel.xlsx
+++ b/Parcial 1/PracticaArchivos/Excel.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>string</t>
+    <t>La abeja hace Buzzzzz</t>
+  </si>
+  <si>
+    <t>Es de color amarillo</t>
   </si>
 </sst>
 </file>
@@ -24,7 +27,7 @@
   <numFmts count="1">
     <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -33,12 +36,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0800"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FFFF0800"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -64,10 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,30 +73,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1" s="1">
-        <f>A1 + B1</f>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="b">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
